--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_20_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_20_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60273.69280970575</v>
+        <v>11994464.86913143</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60273.69280970575</v>
+        <v>11994464.86913143</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1045.892617163295</v>
+        <v>67411.87201854163</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1045.892617163295</v>
+        <v>67411.87201854163</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112884333.319303</v>
+        <v>46027561.54715937</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9692.120957483474</v>
+        <v>1091573.996679733</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18224.53904236244</v>
+        <v>2003319.054728505</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26756.95712724141</v>
+        <v>2915064.112777277</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35289.37521212037</v>
+        <v>3826809.170826046</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43821.79329699933</v>
+        <v>4738554.228874815</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52354.21138187828</v>
+        <v>5650299.286923582</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>60886.62946675723</v>
+        <v>6562044.344972345</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69419.04755163618</v>
+        <v>7473789.403021108</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>77951.46563651513</v>
+        <v>8385534.461069874</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>86483.8837213939</v>
+        <v>9297279.519118672</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95016.30180627282</v>
+        <v>10209024.57716744</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>103548.7198911517</v>
+        <v>11120769.63521622</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>112081.1379760307</v>
+        <v>12032514.69326499</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>120613.5560609094</v>
+        <v>12944259.75131379</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>129145.9741457883</v>
+        <v>13856004.80936257</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27055,10 +27055,10 @@
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>400</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>359</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
